--- a/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D8AED3-FA04-47BA-91A9-0C953271AF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD7D6F4-B0E0-4FE9-B988-232054376F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11E9C285-A3DE-48B1-9FA2-71420E142BAC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C73E57F-C5DE-444B-990A-E7FA13778066}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,74%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>23,68%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>29,95%</t>
@@ -161,31 +161,31 @@
     <t>28,31%</t>
   </si>
   <si>
-    <t>31,54%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>63,38%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>70,05%</t>
   </si>
   <si>
-    <t>68,46%</t>
+    <t>68,42%</t>
   </si>
   <si>
     <t>71,69%</t>
@@ -197,109 +197,109 @@
     <t>24,21%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>79,82%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -308,220 +308,214 @@
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>51,87%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>57,04%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
@@ -530,16 +524,16 @@
     <t>18,1%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>19,46%</t>
+    <t>19,4%</t>
   </si>
   <si>
     <t>24,49%</t>
@@ -548,19 +542,19 @@
     <t>20,22%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>78,17%</t>
@@ -569,142 +563,148 @@
     <t>75,51%</t>
   </si>
   <si>
-    <t>80,54%</t>
+    <t>80,6%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>29,47%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>70,53%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>27,52%</t>
+    <t>27,55%</t>
   </si>
   <si>
     <t>29,74%</t>
@@ -713,19 +713,19 @@
     <t>76,19%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>71,34%</t>
@@ -734,7 +734,7 @@
     <t>70,26%</t>
   </si>
   <si>
-    <t>72,48%</t>
+    <t>72,45%</t>
   </si>
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -743,217 +743,217 @@
     <t>18,07%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>81,93%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>78,7%</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
   </si>
   <si>
     <t>82,77%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F5A17A-9D2A-4C75-8469-E93D90DEE196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA799E66-6304-43D7-BBCE-FE679515A8D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,7 +2032,7 @@
         <v>4889</v>
       </c>
       <c r="N14" s="7">
-        <v>4968863</v>
+        <v>4968864</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2083,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D525F40F-7673-4C42-88FD-114521AAF896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1D1E2-C5D1-4AC0-9460-E4A004CCC52F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,13 +2240,13 @@
         <v>183250</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>361</v>
@@ -2255,13 +2255,13 @@
         <v>390305</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>533</v>
@@ -2270,13 +2270,13 @@
         <v>573555</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2291,13 @@
         <v>791393</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>886</v>
@@ -2306,13 +2306,13 @@
         <v>947491</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1622</v>
@@ -2321,13 +2321,13 @@
         <v>1738885</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2395,13 @@
         <v>639168</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>850</v>
@@ -2410,13 +2410,13 @@
         <v>911818</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1461</v>
@@ -2425,13 +2425,13 @@
         <v>1550986</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>1324789</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>785</v>
@@ -2461,13 +2461,13 @@
         <v>845985</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2030</v>
@@ -2476,13 +2476,13 @@
         <v>2170774</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>178094</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -2565,13 +2565,13 @@
         <v>224813</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>367</v>
@@ -2580,13 +2580,13 @@
         <v>402907</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2601,13 @@
         <v>303087</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -2616,13 +2616,13 @@
         <v>233818</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>483</v>
@@ -2631,13 +2631,13 @@
         <v>536905</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2705,13 @@
         <v>1000513</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1416</v>
@@ -2720,13 +2720,13 @@
         <v>1526936</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2361</v>
@@ -2735,13 +2735,13 @@
         <v>2527449</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2756,13 @@
         <v>2419269</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1878</v>
@@ -2771,13 +2771,13 @@
         <v>2027294</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4135</v>
@@ -2786,13 +2786,13 @@
         <v>4446563</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D443A-F9EA-4EE8-B396-E2D149C2B4A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DE1A0-10F7-490B-B954-65CE8D7B0A3B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2991,13 @@
         <v>136507</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>205</v>
@@ -3006,13 +3006,13 @@
         <v>217164</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -3021,13 +3021,13 @@
         <v>353671</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>617840</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>687</v>
@@ -3057,13 +3057,13 @@
         <v>777496</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1316</v>
@@ -3072,13 +3072,13 @@
         <v>1395336</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3146,13 @@
         <v>517978</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>730</v>
@@ -3161,13 +3161,13 @@
         <v>738930</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1221</v>
@@ -3176,13 +3176,13 @@
         <v>1256908</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3197,13 @@
         <v>1558407</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>1178</v>
@@ -3212,13 +3212,13 @@
         <v>1249370</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>2639</v>
@@ -3227,10 +3227,10 @@
         <v>2807777</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>195</v>
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF21A9B8-DCB3-4EA5-9C86-0A4F138CCB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD02B5F6-9D95-46CC-96D2-35A40F00E447}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3960,7 +3960,7 @@
         <v>2456</v>
       </c>
       <c r="I8" s="7">
-        <v>1770266</v>
+        <v>1770267</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -4011,7 +4011,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4204,7 +4204,7 @@
         <v>475</v>
       </c>
       <c r="D13" s="7">
-        <v>454652</v>
+        <v>454651</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
@@ -4285,7 +4285,7 @@
         <v>7274</v>
       </c>
       <c r="N14" s="7">
-        <v>5939510</v>
+        <v>5939509</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>302</v>
@@ -4306,7 +4306,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4336,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD7D6F4-B0E0-4FE9-B988-232054376F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E582CE2F-0BFA-40C4-82A7-59877A740376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C73E57F-C5DE-444B-990A-E7FA13778066}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{483CC425-B64D-4D67-84EE-3E61E0EE242F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,415 +77,421 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>51,87%</t>
   </si>
   <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>35,0%</t>
+    <t>35,15%</t>
   </si>
   <si>
     <t>37,42%</t>
@@ -494,19 +500,19 @@
     <t>70,74%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>57,04%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
   </si>
   <si>
     <t>63,76%</t>
@@ -515,34 +521,34 @@
     <t>62,58%</t>
   </si>
   <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>18,34%</t>
+    <t>18,31%</t>
   </si>
   <si>
     <t>22,24%</t>
@@ -551,19 +557,19 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>79,78%</t>
@@ -572,169 +578,169 @@
     <t>77,76%</t>
   </si>
   <si>
-    <t>81,66%</t>
+    <t>81,69%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1365,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA799E66-6304-43D7-BBCE-FE679515A8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C19D940-5D01-488E-A424-23690ACCE72C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,7 +1698,7 @@
         <v>1264</v>
       </c>
       <c r="D8" s="7">
-        <v>1292347</v>
+        <v>1292348</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1749,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2002,7 +2008,7 @@
         <v>2577</v>
       </c>
       <c r="D14" s="7">
-        <v>2615477</v>
+        <v>2615476</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2053,7 +2059,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1D1E2-C5D1-4AC0-9460-E4A004CCC52F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8C99C-546F-4563-BDC6-AC20CC1F433D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,13 +2246,13 @@
         <v>183250</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>361</v>
@@ -2255,13 +2261,13 @@
         <v>390305</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>533</v>
@@ -2270,13 +2276,13 @@
         <v>573555</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2297,13 @@
         <v>791393</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>886</v>
@@ -2306,13 +2312,13 @@
         <v>947491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1622</v>
@@ -2321,13 +2327,13 @@
         <v>1738885</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2401,13 @@
         <v>639168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>850</v>
@@ -2410,13 +2416,13 @@
         <v>911818</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1461</v>
@@ -2425,13 +2431,13 @@
         <v>1550986</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2452,13 @@
         <v>1324789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>785</v>
@@ -2461,13 +2467,13 @@
         <v>845985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2030</v>
@@ -2476,13 +2482,13 @@
         <v>2170774</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2556,13 @@
         <v>178094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -2565,13 +2571,13 @@
         <v>224813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>367</v>
@@ -2580,13 +2586,13 @@
         <v>402907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2607,13 @@
         <v>303087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -2616,13 +2622,13 @@
         <v>233818</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>483</v>
@@ -2631,13 +2637,13 @@
         <v>536905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2711,13 @@
         <v>1000513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1416</v>
@@ -2720,13 +2726,13 @@
         <v>1526936</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2361</v>
@@ -2735,13 +2741,13 @@
         <v>2527449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2762,13 @@
         <v>2419269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1878</v>
@@ -2771,13 +2777,13 @@
         <v>2027294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4135</v>
@@ -2786,13 +2792,13 @@
         <v>4446563</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DE1A0-10F7-490B-B954-65CE8D7B0A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA1C74-15A8-420F-87F7-FDFFC7D4499E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2997,13 @@
         <v>136507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>205</v>
@@ -3006,13 +3012,13 @@
         <v>217164</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -3021,13 +3027,13 @@
         <v>353671</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3048,13 @@
         <v>617840</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>687</v>
@@ -3057,13 +3063,13 @@
         <v>777496</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1316</v>
@@ -3072,13 +3078,13 @@
         <v>1395336</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3152,13 @@
         <v>517978</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>730</v>
@@ -3161,13 +3167,13 @@
         <v>738930</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1221</v>
@@ -3176,13 +3182,13 @@
         <v>1256908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3203,13 @@
         <v>1558407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1178</v>
@@ -3212,13 +3218,13 @@
         <v>1249370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2639</v>
@@ -3227,13 +3233,13 @@
         <v>2807777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3307,13 @@
         <v>149684</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -3316,13 +3322,13 @@
         <v>220350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>348</v>
@@ -3331,13 +3337,13 @@
         <v>370034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3358,13 @@
         <v>397202</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -3367,13 +3373,13 @@
         <v>328790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>679</v>
@@ -3382,13 +3388,13 @@
         <v>725992</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3462,13 @@
         <v>804169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1147</v>
@@ -3471,13 +3477,13 @@
         <v>1176444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1907</v>
@@ -3486,13 +3492,13 @@
         <v>1980613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3513,13 @@
         <v>2573449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2179</v>
@@ -3522,13 +3528,13 @@
         <v>2355656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4634</v>
@@ -3537,13 +3543,13 @@
         <v>4929105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD02B5F6-9D95-46CC-96D2-35A40F00E447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11804775-77E4-4431-8BA2-9B7ED9816F24}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3748,13 @@
         <v>97872</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>388</v>
@@ -3757,13 +3763,13 @@
         <v>220566</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>522</v>
@@ -3772,13 +3778,13 @@
         <v>318438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3799,13 @@
         <v>443762</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>1039</v>
@@ -3808,13 +3814,13 @@
         <v>615387</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>1596</v>
@@ -3823,13 +3829,13 @@
         <v>1059148</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3903,13 @@
         <v>282091</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>465</v>
@@ -3912,13 +3918,13 @@
         <v>479254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>738</v>
@@ -3927,13 +3933,13 @@
         <v>761345</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3954,13 @@
         <v>1879931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>2456</v>
@@ -3963,13 +3969,13 @@
         <v>1770267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>4175</v>
@@ -3978,13 +3984,13 @@
         <v>3650198</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4058,13 @@
         <v>74689</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -4067,13 +4073,13 @@
         <v>82073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>182</v>
@@ -4082,13 +4088,13 @@
         <v>156762</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4109,13 @@
         <v>598350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>890</v>
@@ -4118,13 +4124,13 @@
         <v>631813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1503</v>
@@ -4133,13 +4139,13 @@
         <v>1230164</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4213,13 @@
         <v>454651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>967</v>
@@ -4222,13 +4228,13 @@
         <v>781894</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>1442</v>
@@ -4237,13 +4243,13 @@
         <v>1236545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4264,13 @@
         <v>2922043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>4385</v>
@@ -4273,13 +4279,13 @@
         <v>3017466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>7274</v>
@@ -4288,13 +4294,13 @@
         <v>5939509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E582CE2F-0BFA-40C4-82A7-59877A740376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D00AD5-F3A1-458B-AB16-71F4FCE6529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{483CC425-B64D-4D67-84EE-3E61E0EE242F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7CCBE4D-2317-4DEF-B218-5EA1767B0691}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,829 +137,811 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2012 (Tasa respuesta: 66,65%)</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2016 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>68,41%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C19D940-5D01-488E-A424-23690ACCE72C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4576773-18A3-4E3B-A875-C23102B12456}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D4" s="7">
-        <v>126493</v>
+        <v>137961</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1504,10 +1486,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="I4" s="7">
-        <v>274902</v>
+        <v>285053</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1519,10 +1501,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="N4" s="7">
-        <v>401395</v>
+        <v>423014</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1540,10 +1522,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>916</v>
+        <v>558</v>
       </c>
       <c r="D5" s="7">
-        <v>905230</v>
+        <v>540142</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1555,10 +1537,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1022</v>
+        <v>701</v>
       </c>
       <c r="I5" s="7">
-        <v>1040211</v>
+        <v>715036</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1570,10 +1552,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1938</v>
+        <v>1259</v>
       </c>
       <c r="N5" s="7">
-        <v>1945441</v>
+        <v>1255178</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1591,10 +1573,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1038</v>
+        <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>1031723</v>
+        <v>678103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1606,10 +1588,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1291</v>
+        <v>980</v>
       </c>
       <c r="I6" s="7">
-        <v>1315113</v>
+        <v>1000089</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1621,10 +1603,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2329</v>
+        <v>1671</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>1678192</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1644,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="D7" s="7">
-        <v>401065</v>
+        <v>427487</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1659,10 +1641,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="I7" s="7">
-        <v>581464</v>
+        <v>599174</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1674,10 +1656,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>943</v>
+        <v>986</v>
       </c>
       <c r="N7" s="7">
-        <v>982529</v>
+        <v>1026661</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1695,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1264</v>
+        <v>508</v>
       </c>
       <c r="D8" s="7">
-        <v>1292348</v>
+        <v>512721</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1710,10 +1692,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>996</v>
+        <v>406</v>
       </c>
       <c r="I8" s="7">
-        <v>1006209</v>
+        <v>411928</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1725,10 +1707,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>2260</v>
+        <v>914</v>
       </c>
       <c r="N8" s="7">
-        <v>2298557</v>
+        <v>924649</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1746,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1649</v>
+        <v>918</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>940208</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1761,10 +1743,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1554</v>
+        <v>982</v>
       </c>
       <c r="I9" s="7">
-        <v>1587673</v>
+        <v>1011102</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1776,10 +1758,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3203</v>
+        <v>1900</v>
       </c>
       <c r="N9" s="7">
-        <v>3281086</v>
+        <v>1951310</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1799,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7">
-        <v>133509</v>
+        <v>140555</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1814,10 +1796,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>169444</v>
+        <v>174472</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1829,10 +1811,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="N10" s="7">
-        <v>302953</v>
+        <v>315026</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1850,10 +1832,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>397</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7">
-        <v>417899</v>
+        <v>151360</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1865,10 +1847,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7">
-        <v>306968</v>
+        <v>115700</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1880,10 +1862,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>691</v>
+        <v>250</v>
       </c>
       <c r="N11" s="7">
-        <v>724867</v>
+        <v>267060</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1901,10 +1883,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>527</v>
+        <v>276</v>
       </c>
       <c r="D12" s="7">
-        <v>551408</v>
+        <v>291915</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1916,10 +1898,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>452</v>
+        <v>273</v>
       </c>
       <c r="I12" s="7">
-        <v>476412</v>
+        <v>290172</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1931,10 +1913,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>979</v>
+        <v>549</v>
       </c>
       <c r="N12" s="7">
-        <v>1027820</v>
+        <v>582086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1954,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="D13" s="7">
-        <v>661067</v>
+        <v>706004</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1969,10 +1951,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="I13" s="7">
-        <v>1025811</v>
+        <v>1058698</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1984,10 +1966,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1622</v>
+        <v>1697</v>
       </c>
       <c r="N13" s="7">
-        <v>1686877</v>
+        <v>1764702</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2005,10 +1987,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2577</v>
+        <v>1206</v>
       </c>
       <c r="D14" s="7">
-        <v>2615476</v>
+        <v>1204222</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2020,10 +2002,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>2312</v>
+        <v>1217</v>
       </c>
       <c r="I14" s="7">
-        <v>2353387</v>
+        <v>1242664</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2035,10 +2017,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>4889</v>
+        <v>2423</v>
       </c>
       <c r="N14" s="7">
-        <v>4968864</v>
+        <v>2446886</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2056,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3214</v>
+        <v>1885</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>1910226</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2071,10 +2053,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3297</v>
+        <v>2235</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>2301362</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2086,10 +2068,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6511</v>
+        <v>4120</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>4211588</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2122,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8C99C-546F-4563-BDC6-AC20CC1F433D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0AB818-C58B-4966-8865-ED1BF645581D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,10 +2222,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7">
-        <v>183250</v>
+        <v>199146</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2255,10 +2237,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I4" s="7">
-        <v>390305</v>
+        <v>393204</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2270,10 +2252,10 @@
         <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="N4" s="7">
-        <v>573555</v>
+        <v>592350</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2291,10 +2273,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>736</v>
+        <v>478</v>
       </c>
       <c r="D5" s="7">
-        <v>791393</v>
+        <v>517852</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2306,10 +2288,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>886</v>
+        <v>628</v>
       </c>
       <c r="I5" s="7">
-        <v>947491</v>
+        <v>669107</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2321,10 +2303,10 @@
         <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1622</v>
+        <v>1106</v>
       </c>
       <c r="N5" s="7">
-        <v>1738885</v>
+        <v>1186959</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2342,10 +2324,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>908</v>
+        <v>664</v>
       </c>
       <c r="D6" s="7">
-        <v>974643</v>
+        <v>716998</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2357,10 +2339,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1247</v>
+        <v>992</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1062311</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2372,10 +2354,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2155</v>
+        <v>1656</v>
       </c>
       <c r="N6" s="7">
-        <v>2312440</v>
+        <v>1779309</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2395,10 +2377,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="D7" s="7">
-        <v>639168</v>
+        <v>674201</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2410,10 +2392,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="I7" s="7">
-        <v>911818</v>
+        <v>930117</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2425,10 +2407,10 @@
         <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>1461</v>
+        <v>1513</v>
       </c>
       <c r="N7" s="7">
-        <v>1550986</v>
+        <v>1604318</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2446,10 +2428,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1245</v>
+        <v>450</v>
       </c>
       <c r="D8" s="7">
-        <v>1324789</v>
+        <v>483970</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2461,10 +2443,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>785</v>
+        <v>238</v>
       </c>
       <c r="I8" s="7">
-        <v>845985</v>
+        <v>252768</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2476,10 +2458,10 @@
         <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>2030</v>
+        <v>688</v>
       </c>
       <c r="N8" s="7">
-        <v>2170774</v>
+        <v>736738</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2497,10 +2479,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1856</v>
+        <v>1095</v>
       </c>
       <c r="D9" s="7">
-        <v>1963957</v>
+        <v>1158171</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2512,10 +2494,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1635</v>
+        <v>1106</v>
       </c>
       <c r="I9" s="7">
-        <v>1757803</v>
+        <v>1182885</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2527,10 +2509,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3491</v>
+        <v>2201</v>
       </c>
       <c r="N9" s="7">
-        <v>3721760</v>
+        <v>2341056</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2550,10 +2532,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D10" s="7">
-        <v>178094</v>
+        <v>180210</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2565,10 +2547,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>224813</v>
+        <v>226702</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2580,10 +2562,10 @@
         <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>402907</v>
+        <v>406911</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>131</v>
@@ -2601,10 +2583,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>303087</v>
+        <v>79368</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>134</v>
@@ -2616,10 +2598,10 @@
         <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>233818</v>
+        <v>41822</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>137</v>
@@ -2631,10 +2613,10 @@
         <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>483</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>536905</v>
+        <v>121190</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2652,10 +2634,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>438</v>
+        <v>232</v>
       </c>
       <c r="D12" s="7">
-        <v>481181</v>
+        <v>259578</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2667,10 +2649,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>412</v>
+        <v>242</v>
       </c>
       <c r="I12" s="7">
-        <v>458631</v>
+        <v>268524</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2682,10 +2664,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>850</v>
+        <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>528101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2705,10 +2687,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>945</v>
+        <v>995</v>
       </c>
       <c r="D13" s="7">
-        <v>1000513</v>
+        <v>1053556</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2720,10 +2702,10 @@
         <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>1416</v>
+        <v>1439</v>
       </c>
       <c r="I13" s="7">
-        <v>1526936</v>
+        <v>1550023</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>146</v>
@@ -2735,10 +2717,10 @@
         <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>2361</v>
+        <v>2434</v>
       </c>
       <c r="N13" s="7">
-        <v>2527449</v>
+        <v>2603579</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>149</v>
@@ -2756,10 +2738,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2257</v>
+        <v>996</v>
       </c>
       <c r="D14" s="7">
-        <v>2419269</v>
+        <v>1081190</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>152</v>
@@ -2771,10 +2753,10 @@
         <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>1878</v>
+        <v>901</v>
       </c>
       <c r="I14" s="7">
-        <v>2027294</v>
+        <v>963697</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2786,10 +2768,10 @@
         <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>4135</v>
+        <v>1897</v>
       </c>
       <c r="N14" s="7">
-        <v>4446563</v>
+        <v>2044887</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>158</v>
@@ -2807,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3202</v>
+        <v>1991</v>
       </c>
       <c r="D15" s="7">
-        <v>3419782</v>
+        <v>2134746</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2822,10 +2804,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3294</v>
+        <v>2340</v>
       </c>
       <c r="I15" s="7">
-        <v>3554230</v>
+        <v>2513720</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2837,10 +2819,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6496</v>
+        <v>4331</v>
       </c>
       <c r="N15" s="7">
-        <v>6974012</v>
+        <v>4648466</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2873,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA1C74-15A8-420F-87F7-FDFFC7D4499E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB80C1-A8BE-49DE-9C2B-38D88987B018}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2991,10 +2973,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
-        <v>136507</v>
+        <v>141290</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>162</v>
@@ -3006,10 +2988,10 @@
         <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I4" s="7">
-        <v>217164</v>
+        <v>222973</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>165</v>
@@ -3021,10 +3003,10 @@
         <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="N4" s="7">
-        <v>353671</v>
+        <v>364263</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>168</v>
@@ -3042,10 +3024,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>629</v>
+        <v>401</v>
       </c>
       <c r="D5" s="7">
-        <v>617840</v>
+        <v>376960</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>171</v>
@@ -3057,10 +3039,10 @@
         <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>687</v>
+        <v>484</v>
       </c>
       <c r="I5" s="7">
-        <v>777496</v>
+        <v>562586</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>174</v>
@@ -3072,10 +3054,10 @@
         <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>1316</v>
+        <v>885</v>
       </c>
       <c r="N5" s="7">
-        <v>1395336</v>
+        <v>939547</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>177</v>
@@ -3093,10 +3075,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>762</v>
+        <v>539</v>
       </c>
       <c r="D6" s="7">
-        <v>754347</v>
+        <v>518250</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3108,10 +3090,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>892</v>
+        <v>694</v>
       </c>
       <c r="I6" s="7">
-        <v>994660</v>
+        <v>785559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3123,10 +3105,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1654</v>
+        <v>1233</v>
       </c>
       <c r="N6" s="7">
-        <v>1749007</v>
+        <v>1303810</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3146,10 +3128,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="D7" s="7">
-        <v>517978</v>
+        <v>541921</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>180</v>
@@ -3161,10 +3143,10 @@
         <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="I7" s="7">
-        <v>738930</v>
+        <v>749761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>183</v>
@@ -3176,10 +3158,10 @@
         <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>1221</v>
+        <v>1254</v>
       </c>
       <c r="N7" s="7">
-        <v>1256908</v>
+        <v>1291682</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>186</v>
@@ -3197,10 +3179,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1461</v>
+        <v>536</v>
       </c>
       <c r="D8" s="7">
-        <v>1558407</v>
+        <v>560021</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>189</v>
@@ -3212,10 +3194,10 @@
         <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>1178</v>
+        <v>446</v>
       </c>
       <c r="I8" s="7">
-        <v>1249370</v>
+        <v>482784</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>192</v>
@@ -3227,10 +3209,10 @@
         <v>194</v>
       </c>
       <c r="M8" s="7">
-        <v>2639</v>
+        <v>982</v>
       </c>
       <c r="N8" s="7">
-        <v>2807777</v>
+        <v>1042805</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>195</v>
@@ -3248,10 +3230,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>1050</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>1101942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3263,10 +3245,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>1186</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>1232545</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3278,10 +3260,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>2236</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>2334487</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3301,10 +3283,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>149684</v>
+        <v>150701</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>198</v>
@@ -3316,10 +3298,10 @@
         <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I10" s="7">
-        <v>220350</v>
+        <v>222199</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>201</v>
@@ -3331,19 +3313,19 @@
         <v>203</v>
       </c>
       <c r="M10" s="7">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N10" s="7">
-        <v>370034</v>
+        <v>372900</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,49 +3334,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>397202</v>
+        <v>117628</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>83</v>
+      </c>
+      <c r="I11" s="7">
+        <v>90221</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="7">
-        <v>314</v>
-      </c>
-      <c r="I11" s="7">
-        <v>328790</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>191</v>
+      </c>
+      <c r="N11" s="7">
+        <v>207849</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M11" s="7">
-        <v>679</v>
-      </c>
-      <c r="N11" s="7">
-        <v>725992</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,10 +3385,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>245</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>268329</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3418,10 +3400,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>312420</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3433,10 +3415,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>542</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>580749</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3456,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>760</v>
+        <v>789</v>
       </c>
       <c r="D13" s="7">
-        <v>804169</v>
+        <v>833912</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1164</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1194933</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1953</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2028845</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="7">
-        <v>1147</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1176444</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1907</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1980613</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,49 +3489,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2455</v>
+        <v>1045</v>
       </c>
       <c r="D14" s="7">
-        <v>2573449</v>
+        <v>1054609</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1013</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1135591</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2058</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2190201</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2179</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2355656</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4634</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4929105</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>1834</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>1888521</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3573,10 +3555,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>2177</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>2330524</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3588,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>4011</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>4219046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3624,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11804775-77E4-4431-8BA2-9B7ED9816F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FEB4EF-C0F0-4115-9E58-2B6C7F6B446A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3641,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,49 +3724,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>97872</v>
+        <v>50478</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7">
+        <v>153</v>
+      </c>
+      <c r="I4" s="7">
+        <v>90246</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M4" s="7">
+        <v>214</v>
+      </c>
+      <c r="N4" s="7">
+        <v>140723</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="H4" s="7">
-        <v>388</v>
-      </c>
-      <c r="I4" s="7">
-        <v>220566</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M4" s="7">
-        <v>522</v>
-      </c>
-      <c r="N4" s="7">
-        <v>318438</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,49 +3775,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="D5" s="7">
-        <v>443762</v>
+        <v>491156</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1274</v>
+      </c>
+      <c r="I5" s="7">
+        <v>745707</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1904</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1236863</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1039</v>
-      </c>
-      <c r="I5" s="7">
-        <v>615387</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1596</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1059148</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,49 +3879,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7">
-        <v>282091</v>
+        <v>192560</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="7">
+        <v>371</v>
+      </c>
+      <c r="I7" s="7">
+        <v>412930</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="7">
+        <v>556</v>
+      </c>
+      <c r="N7" s="7">
+        <v>605490</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="H7" s="7">
-        <v>465</v>
-      </c>
-      <c r="I7" s="7">
-        <v>479254</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M7" s="7">
-        <v>738</v>
-      </c>
-      <c r="N7" s="7">
-        <v>761345</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +3930,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1719</v>
+        <v>1807</v>
       </c>
       <c r="D8" s="7">
-        <v>1879931</v>
+        <v>1969462</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2550</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1836590</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4357</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3806053</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2456</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1770267</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4175</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3650198</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +3999,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4052,49 +4034,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>74689</v>
+        <v>49677</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="7">
+        <v>102</v>
+      </c>
+      <c r="I10" s="7">
+        <v>74643</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="7">
+        <v>147</v>
+      </c>
+      <c r="N10" s="7">
+        <v>124320</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="H10" s="7">
-        <v>114</v>
-      </c>
-      <c r="I10" s="7">
-        <v>82073</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M10" s="7">
-        <v>182</v>
-      </c>
-      <c r="N10" s="7">
-        <v>156762</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,49 +4085,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D11" s="7">
-        <v>598350</v>
+        <v>623362</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" s="7">
+        <v>902</v>
+      </c>
+      <c r="I11" s="7">
+        <v>639243</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1538</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1262606</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="H11" s="7">
-        <v>890</v>
-      </c>
-      <c r="I11" s="7">
-        <v>631813</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1503</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1230164</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,49 +4189,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>475</v>
+        <v>291</v>
       </c>
       <c r="D13" s="7">
-        <v>454651</v>
+        <v>292715</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="7">
+        <v>626</v>
+      </c>
+      <c r="I13" s="7">
+        <v>577818</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M13" s="7">
+        <v>917</v>
+      </c>
+      <c r="N13" s="7">
+        <v>870533</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="H13" s="7">
-        <v>967</v>
-      </c>
-      <c r="I13" s="7">
-        <v>781894</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1442</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1236545</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,49 +4240,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2889</v>
+        <v>3073</v>
       </c>
       <c r="D14" s="7">
-        <v>2922043</v>
+        <v>3083980</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4726</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3221542</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7799</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6305522</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4385</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3017466</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7274</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5939509</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4294,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4342,7 +4324,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D00AD5-F3A1-458B-AB16-71F4FCE6529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96912D7-D35F-4E4A-901D-B7187D8058F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7CCBE4D-2317-4DEF-B218-5EA1767B0691}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{60E63731-3483-4D84-86B1-0952902F9D12}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>20,35%</t>
@@ -101,7 +101,7 @@
     <t>27,39%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>79,65%</t>
@@ -728,220 +728,214 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados habituales por la persona entrevistada en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4576773-18A3-4E3B-A875-C23102B12456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A327018-1615-4E1D-893F-26AC2336E8E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0AB818-C58B-4966-8865-ED1BF645581D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70EDA3A-498D-40BB-B1D4-F2C93B9E0684}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB80C1-A8BE-49DE-9C2B-38D88987B018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B959456D-194F-460E-A386-027586C13711}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3522,7 +3516,7 @@
         <v>2058</v>
       </c>
       <c r="N14" s="7">
-        <v>2190201</v>
+        <v>2190200</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>225</v>
@@ -3573,7 +3567,7 @@
         <v>4011</v>
       </c>
       <c r="N15" s="7">
-        <v>4219046</v>
+        <v>4219045</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3606,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FEB4EF-C0F0-4115-9E58-2B6C7F6B446A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62035AEC-DBD3-48CC-B352-456951518BBB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3721,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>50478</v>
+        <v>46261</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3742,7 +3736,7 @@
         <v>153</v>
       </c>
       <c r="I4" s="7">
-        <v>90246</v>
+        <v>80779</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3757,7 +3751,7 @@
         <v>214</v>
       </c>
       <c r="N4" s="7">
-        <v>140723</v>
+        <v>127039</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3778,7 +3772,7 @@
         <v>630</v>
       </c>
       <c r="D5" s="7">
-        <v>491156</v>
+        <v>468677</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3793,7 +3787,7 @@
         <v>1274</v>
       </c>
       <c r="I5" s="7">
-        <v>745707</v>
+        <v>674729</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3808,7 +3802,7 @@
         <v>1904</v>
       </c>
       <c r="N5" s="7">
-        <v>1236863</v>
+        <v>1143407</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3829,7 +3823,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3838,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3853,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3882,7 +3876,7 @@
         <v>185</v>
       </c>
       <c r="D7" s="7">
-        <v>192560</v>
+        <v>174242</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
@@ -3897,7 +3891,7 @@
         <v>371</v>
       </c>
       <c r="I7" s="7">
-        <v>412930</v>
+        <v>469960</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>250</v>
@@ -3906,22 +3900,22 @@
         <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>556</v>
       </c>
       <c r="N7" s="7">
-        <v>605490</v>
+        <v>644202</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,46 +3927,46 @@
         <v>1807</v>
       </c>
       <c r="D8" s="7">
-        <v>1969462</v>
+        <v>2116085</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2550</v>
       </c>
       <c r="I8" s="7">
-        <v>1836590</v>
+        <v>1767863</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4357</v>
       </c>
       <c r="N8" s="7">
-        <v>3806053</v>
+        <v>3883948</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3978,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +3993,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +4008,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4037,46 +4031,46 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>49677</v>
+        <v>47013</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
       </c>
       <c r="I10" s="7">
-        <v>74643</v>
+        <v>66435</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>124320</v>
+        <v>113448</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,46 +4082,46 @@
         <v>636</v>
       </c>
       <c r="D11" s="7">
-        <v>623362</v>
+        <v>599610</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>902</v>
       </c>
       <c r="I11" s="7">
-        <v>639243</v>
+        <v>594028</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1538</v>
       </c>
       <c r="N11" s="7">
-        <v>1262606</v>
+        <v>1193638</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,7 +4133,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4148,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4163,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4192,46 +4186,46 @@
         <v>291</v>
       </c>
       <c r="D13" s="7">
-        <v>292715</v>
+        <v>267516</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>626</v>
       </c>
       <c r="I13" s="7">
-        <v>577818</v>
+        <v>617174</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>917</v>
       </c>
       <c r="N13" s="7">
-        <v>870533</v>
+        <v>884690</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4237,46 @@
         <v>3073</v>
       </c>
       <c r="D14" s="7">
-        <v>3083980</v>
+        <v>3184373</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>4726</v>
       </c>
       <c r="I14" s="7">
-        <v>3221542</v>
+        <v>3036620</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>7799</v>
       </c>
       <c r="N14" s="7">
-        <v>6305522</v>
+        <v>6220993</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4288,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4303,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4318,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
